--- a/Ref_Non_Canonic.xlsx
+++ b/Ref_Non_Canonic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yohan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yohan\Desktop\Projet-INSERM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,9 +86,6 @@
     <t>Phosphoglucose isomerase/autocrine motility factor mediates epithelial-mesenchymal transition regulated by miR-200 in breast cancer cells</t>
   </si>
   <si>
-    <t>Autocrine motility factor/phosphoglucose isomerase regulates ER stress and cell death through control of ER calcium release.</t>
-  </si>
-  <si>
     <t>Regulation of phosphoglucose isomerase/autocrine motility factor expression by hypoxia</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>The multifunctional protein glyceraldehyde-3-phosphate dehydrogenase is both regulated and controls colony stimulating factor-1 messenger RNA stability in ovarian cancer</t>
   </si>
   <si>
-    <t>Phosphoglycerate kinase (PGK1</t>
-  </si>
-  <si>
     <t>Kumble and Vishwanatha, 1991</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>Philips et al., 2009</t>
   </si>
   <si>
-    <t>Fumarase</t>
-  </si>
-  <si>
     <t>Jiang et al., 2015</t>
   </si>
   <si>
@@ -441,6 +432,15 @@
   </si>
   <si>
     <t>Methionine adenosyltransferase II serves as a transcriptional corepressor of Maf oncoprotein</t>
+  </si>
+  <si>
+    <t>Autocrine motility factor/phosphoglucose isomerase regulates ER stress and cell death through control of ER calcium release</t>
+  </si>
+  <si>
+    <t>Phosphoglycerate kinase (PGK1)</t>
+  </si>
+  <si>
+    <t>Fumarase (FH)</t>
   </si>
 </sst>
 </file>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,91 +865,91 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -957,369 +957,369 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
         <v>132</v>
-      </c>
-      <c r="C77" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
